--- a/Extracted_Data.xlsx
+++ b/Extracted_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\25244\Desktop\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCBAF179-221E-4BF1-887F-DC1203AF804F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FF3351C-5FD6-43C3-9811-2F2D10ECDA87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9010" yWindow="2980" windowWidth="19200" windowHeight="11170" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SE Tasks" sheetId="1" r:id="rId1"/>
@@ -282,6 +282,30 @@
   </si>
   <si>
     <t>Ensuring Software Security (4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reducing the Difficulty of Task Resolution (21)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Improving the Efficiency of Generating Software Artifacts (23)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Simulating Human Processes of Solving SE Tasks (30)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Improving the Quality of Generated Code (43)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Optimizing Software Resource Management (27)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Improving the Adaptability of Agent System (19)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -308,32 +332,8 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>14)</t>
+      <t>13)</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Improving the Adaptability of Agent System (20)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Reducing the Difficulty of Task Resolution (21)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Improving the Efficiency of Generating Software Artifacts (23)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Optimizing Software Resource Management (29)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Simulating Human Processes of Solving SE Tasks (30)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Improving the Quality of Generated Code (42)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -429,26 +429,26 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -731,13 +731,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" style="4" customWidth="1"/>
     <col min="2" max="2" width="38.08203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -750,7 +750,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="4">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -758,7 +758,7 @@
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="4">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -766,7 +766,7 @@
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="4">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -774,7 +774,7 @@
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="4">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -782,7 +782,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="4">
+      <c r="A6" s="3">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -790,7 +790,7 @@
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="4">
+      <c r="A7" s="3">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -798,7 +798,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="4">
+      <c r="A8" s="3">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -806,7 +806,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="4">
+      <c r="A9" s="3">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -814,7 +814,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="4">
+      <c r="A10" s="3">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -822,7 +822,7 @@
       </c>
     </row>
     <row r="11" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="4">
+      <c r="A11" s="3">
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -868,7 +868,7 @@
       <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="10" t="s">
         <v>26</v>
       </c>
     </row>
@@ -879,7 +879,7 @@
       <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="3"/>
+      <c r="C3" s="10"/>
     </row>
     <row r="4" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
@@ -888,7 +888,7 @@
       <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="3"/>
+      <c r="C4" s="10"/>
     </row>
     <row r="5" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
@@ -897,7 +897,7 @@
       <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="8" t="s">
         <v>27</v>
       </c>
     </row>
@@ -908,7 +908,7 @@
       <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="7"/>
+      <c r="C6" s="9"/>
     </row>
     <row r="7" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
@@ -917,7 +917,7 @@
       <c r="B7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="7"/>
+      <c r="C7" s="9"/>
     </row>
     <row r="8" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
@@ -926,7 +926,7 @@
       <c r="B8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="8" t="s">
         <v>28</v>
       </c>
     </row>
@@ -937,7 +937,7 @@
       <c r="B9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="7"/>
+      <c r="C9" s="9"/>
     </row>
     <row r="10" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
@@ -946,7 +946,7 @@
       <c r="B10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="7"/>
+      <c r="C10" s="9"/>
     </row>
     <row r="11" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
@@ -955,7 +955,7 @@
       <c r="B11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="8" t="s">
         <v>29</v>
       </c>
     </row>
@@ -966,7 +966,7 @@
       <c r="B12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="7"/>
+      <c r="C12" s="9"/>
     </row>
     <row r="13" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
@@ -975,7 +975,7 @@
       <c r="B13" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="8" t="s">
         <v>30</v>
       </c>
     </row>
@@ -986,7 +986,7 @@
       <c r="B14" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="7"/>
+      <c r="C14" s="9"/>
     </row>
     <row r="15" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
@@ -995,7 +995,7 @@
       <c r="B15" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="8" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1006,7 +1006,7 @@
       <c r="B16" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="7"/>
+      <c r="C16" s="9"/>
     </row>
     <row r="17" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
@@ -1015,7 +1015,7 @@
       <c r="B17" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="8" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1026,7 +1026,7 @@
       <c r="B18" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="7"/>
+      <c r="C18" s="9"/>
     </row>
     <row r="19" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
@@ -1035,7 +1035,7 @@
       <c r="B19" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="8" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1046,7 +1046,7 @@
       <c r="B20" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="7"/>
+      <c r="C20" s="9"/>
     </row>
     <row r="21" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
@@ -1055,7 +1055,7 @@
       <c r="B21" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="8" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1066,19 +1066,19 @@
       <c r="B22" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="7"/>
+      <c r="C22" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C21:C22"/>
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="C2:C4"/>
     <mergeCell ref="C5:C7"/>
     <mergeCell ref="C8:C10"/>
     <mergeCell ref="C13:C14"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C21:C22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1244,8 +1244,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{195CF518-C7D9-47BE-9DB0-C63C900E28CD}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1262,66 +1262,66 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="8">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="5">
+        <v>6</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="5">
+        <v>7</v>
+      </c>
+      <c r="B8" s="7" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="8">
-        <v>2</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="8">
-        <v>3</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="8">
-        <v>4</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="8">
-        <v>5</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="8">
-        <v>6</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="8">
-        <v>7</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>64</v>
-      </c>
-    </row>
     <row r="9" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="8">
+      <c r="A9" s="5">
         <v>8</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="7" t="s">
         <v>63</v>
       </c>
     </row>

--- a/Extracted_Data.xlsx
+++ b/Extracted_Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\25244\Desktop\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FF3351C-5FD6-43C3-9811-2F2D10ECDA87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02CB3248-4DE6-479E-B3CF-984E1C5A92AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9010" yWindow="2980" windowWidth="19200" windowHeight="11170" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SE Tasks" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="68">
   <si>
     <t>ID</t>
   </si>
@@ -125,14 +125,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Risk Identification (4)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Operational Constraint (4)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Functional Suitability (92)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -162,10 +154,6 @@
   </si>
   <si>
     <t>Interaction Capability (9)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Safety (8)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -423,7 +411,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -448,6 +436,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -754,7 +748,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -762,7 +756,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -770,7 +764,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -778,7 +772,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -786,7 +780,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -794,7 +788,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -802,7 +796,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -810,7 +804,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -818,7 +812,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -826,7 +820,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -839,8 +833,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99A0F575-AB88-425C-965B-F35F2754DE47}">
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -869,7 +863,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
@@ -898,7 +892,7 @@
         <v>8</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
@@ -927,7 +921,7 @@
         <v>11</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
@@ -956,7 +950,7 @@
         <v>14</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
@@ -976,7 +970,7 @@
         <v>16</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
@@ -996,7 +990,7 @@
         <v>18</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
@@ -1016,7 +1010,7 @@
         <v>20</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
@@ -1036,7 +1030,7 @@
         <v>22</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
@@ -1049,36 +1043,25 @@
       <c r="C20" s="9"/>
     </row>
     <row r="21" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="2">
-        <v>20</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>34</v>
-      </c>
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="11"/>
     </row>
     <row r="22" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="2">
-        <v>21</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" s="9"/>
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C11:C12"/>
+  <mergeCells count="8">
     <mergeCell ref="C2:C4"/>
     <mergeCell ref="C5:C7"/>
     <mergeCell ref="C8:C10"/>
     <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C11:C12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1103,7 +1086,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -1111,7 +1094,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -1119,7 +1102,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -1127,7 +1110,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -1135,7 +1118,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -1143,7 +1126,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -1151,7 +1134,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -1159,7 +1142,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -1167,7 +1150,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -1175,7 +1158,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -1183,7 +1166,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -1191,7 +1174,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -1199,7 +1182,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -1207,7 +1190,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -1215,7 +1198,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -1223,7 +1206,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -1231,7 +1214,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1244,7 +1227,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{195CF518-C7D9-47BE-9DB0-C63C900E28CD}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -1258,7 +1241,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -1266,7 +1249,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -1274,7 +1257,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -1282,7 +1265,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -1290,7 +1273,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -1298,7 +1281,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -1306,7 +1289,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -1314,7 +1297,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -1322,7 +1305,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
